--- a/analyzed_books.xlsx
+++ b/analyzed_books.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tmpmlbuqdzp.pdf</t>
+          <t>tmpb996ygct.pdf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Основное внимание уделяется математическая логика, математический анализ. Уровень сложности: высокая сложность. Пусть 1 &lt; p &lt; ∞, измеримое множество E ⊂Rn, функции f, g : E →R измеримы В силу неравенства (1) |f(x...</t>
+          <t>Основное внимание уделяется геометрия, математическая логика. Уровень сложности: высокая сложность. Пусть 1 &lt; p &lt; ∞, измеримое множество E ⊂Rn, функции f, g : E →R измеримы В силу неравенства (1) |f(x...</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>алгебра, планиметрия, пределы</t>
+          <t>пределы, алгебра, тригонометрия</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>математическая логика, математический анализ, геометрия</t>
+          <t>геометрия, математическая логика, математический анализ</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Требует серьезной математической подготовки | Рекомендуется с преподавателем | Особое внимание уделено: математическая логика, математический анализ</t>
+          <t>Требует серьезной математической подготовки | Рекомендуется с преподавателем | Особое внимание уделено: геометрия, математическая логика</t>
         </is>
       </c>
     </row>

--- a/analyzed_books.xlsx
+++ b/analyzed_books.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,52 +461,42 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Разделы</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Предметы</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Классы</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Авторы</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Темы</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Сложность</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Разделы</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Области_знаний</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Термины</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Резюме</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Разделы</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Ключевые_темы</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Уровень_сложности</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Предварительные_знания</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Области_математики</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AI_Рекомендации</t>
         </is>
       </c>
     </row>
@@ -514,14 +504,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tmpb996ygct.pdf</t>
+          <t>tmpau65tpts.pdf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -531,59 +519,134 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Лекции для ФПМИ (ФУПМ) ПРОСТРАНСТВА Lp ЛЕБЕГА Бесов О.В. 8 июня 2023 г. Будем пользоваться обозначениями и некоторыми сведениями из [1] и [2]. Нумерация параграфов является продолжением нумерации из [1]. Измеримые множества, измеримые функции, интегрируемые функции и интегралы понимаются в смысле Лебега. §25.2a. Неравенства Гёльдера и Минковского Наиболее важными среди пространств Lp, 1 ≤p &lt; ∞, являются пространства L1 = L и L2. Неравенство треугольника для норм в пространстве L1 следует из нера...</t>
+          <t>Национальный исследовательский ядерный университет «МИФИ» Институт интеллектуальных кибернетических систем Кафедра «Кибернетика» (№22) Тематическое домашнее задание №1 по дисциплине «Дискретная математика (математическая логика)» Задание 1: Пусть1 n = (Nж + 173) mod 48 + 1. Для функции fn выписать СовДНФ и СовКНФ. Пояснение. Функции заданы набором точек, в которых они истинны. Для восстанов- ления конституент единицы функции fn следует каждое число из набора преобразовать в четырехразрядный двои...</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>теоретический уровень, базовый курс, вводный материал</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>математический анализ, математическая логика, линейная алгебра</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>частная производная, формула, среднее значение</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Основное внимание уделяется геометрия, математическая логика. Уровень сложности: высокая сложность. Пусть 1 &lt; p &lt; ∞, измеримое множество E ⊂Rn, функции f, g : E →R измеримы В силу неравенства (1) |f(x...</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Тема 1: Рассматривает: пусть, функции, функций</t>
-        </is>
-      </c>
+          <t>теория графов, численные методы, математический анализ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>теоретический уровень, базовый курс, математический анализ, математическая логика, частная производная</t>
+          <t>вводный материал, базовый курс, начальный уровень</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>высокий</t>
+          <t>численные методы: математика, математическая логика: математика, алгебра: математика</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>пределы, алгебра, тригонометрия</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>геометрия, математическая логика, математический анализ</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Требует серьезной математической подготовки | Рекомендуется с преподавателем | Особое внимание уделено: геометрия, математическая логика</t>
-        </is>
-      </c>
+          <t>частная производная, корень, формула</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tmpljw8xk20.pdf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Национальный исследовательский ядерный университет «МИФИ» Институт интеллектуальных кибернетических систем Кафедра «Кибернетика» (№22) Тематическое домашнее задание №1 по дисциплине «Дискретная математика (математическая логика)» Задание 1: Пусть1 n = (Nж + 173) mod 48 + 1. Для функции fn выписать СовДНФ и СовКНФ. Пояснение. Функции заданы набором точек, в которых они истинны. Для восстанов- ления конституент единицы функции fn следует каждое число из набора преобразовать в четырехразрядный двои...</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>теория графов, численные методы, математический анализ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>вводный материал, базовый курс, начальный уровень</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>численные методы: математика, математическая логика: математика, алгебра: математика</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>частная производная, корень, формула</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tmpnd9uvsi1.pdf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Национальный исследовательский ядерный университет «МИФИ»
+Институт интеллектуальных кибернетических систем
+Кафедра «Кибернетика» (№22)
+Тематическое домашнее задание №1 по дисциплине
+«Дискретная математика (математическая логика)»
+Задание 1:
+Пусть1 n = (Nж + 173) mod 48 + 1. Для функции fn выписать СовДНФ и СовКНФ.
+Пояснение. Функции заданы набором точек, в которых они истинны. Для восстанов-
+ления конституент единицы функции fn следует каждое число из набора преобразовать в
+четырехразрядный двои...</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>математика</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>учебный материал</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
